--- a/flask_app/Sentimental/narendramodi-tweets-analysed.xlsx
+++ b/flask_app/Sentimental/narendramodi-tweets-analysed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,6 +53,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -69,74 +70,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -502,10 +435,10 @@
         <v>44424.14752314815</v>
       </c>
       <c r="D2" t="n">
-        <v>14239</v>
+        <v>15452</v>
       </c>
       <c r="E2" t="n">
-        <v>1872</v>
+        <v>2005</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -549,10 +482,10 @@
         <v>44424.14288194444</v>
       </c>
       <c r="D3" t="n">
-        <v>32029</v>
+        <v>34704</v>
       </c>
       <c r="E3" t="n">
-        <v>2132</v>
+        <v>2304</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -594,10 +527,10 @@
         <v>44424.14085648148</v>
       </c>
       <c r="D4" t="n">
-        <v>18107</v>
+        <v>19437</v>
       </c>
       <c r="E4" t="n">
-        <v>3103</v>
+        <v>3314</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -641,10 +574,10 @@
         <v>44423.6918287037</v>
       </c>
       <c r="D5" t="n">
-        <v>29950</v>
+        <v>30193</v>
       </c>
       <c r="E5" t="n">
-        <v>4005</v>
+        <v>4036</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -686,10 +619,10 @@
         <v>44423.64769675926</v>
       </c>
       <c r="D6" t="n">
-        <v>26942</v>
+        <v>27158</v>
       </c>
       <c r="E6" t="n">
-        <v>3691</v>
+        <v>3718</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -731,10 +664,10 @@
         <v>44423.62320601852</v>
       </c>
       <c r="D7" t="n">
-        <v>23773</v>
+        <v>23926</v>
       </c>
       <c r="E7" t="n">
-        <v>3154</v>
+        <v>3171</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -776,10 +709,10 @@
         <v>44423.47293981481</v>
       </c>
       <c r="D8" t="n">
-        <v>28670</v>
+        <v>28809</v>
       </c>
       <c r="E8" t="n">
-        <v>3799</v>
+        <v>3812</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -821,10 +754,10 @@
         <v>44423.47274305556</v>
       </c>
       <c r="D9" t="n">
-        <v>33842</v>
+        <v>33992</v>
       </c>
       <c r="E9" t="n">
-        <v>3637</v>
+        <v>3654</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -866,10 +799,10 @@
         <v>44423.47239583333</v>
       </c>
       <c r="D10" t="n">
-        <v>12368</v>
+        <v>12463</v>
       </c>
       <c r="E10" t="n">
-        <v>2049</v>
+        <v>2062</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -911,10 +844,10 @@
         <v>44423.47206018519</v>
       </c>
       <c r="D11" t="n">
-        <v>8175</v>
+        <v>8224</v>
       </c>
       <c r="E11" t="n">
-        <v>1470</v>
+        <v>1479</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -956,10 +889,10 @@
         <v>44423.47144675926</v>
       </c>
       <c r="D12" t="n">
-        <v>12215</v>
+        <v>12285</v>
       </c>
       <c r="E12" t="n">
-        <v>1879</v>
+        <v>1888</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1001,10 +934,10 @@
         <v>44423.45146990741</v>
       </c>
       <c r="D13" t="n">
-        <v>11053</v>
+        <v>11101</v>
       </c>
       <c r="E13" t="n">
-        <v>1851</v>
+        <v>1860</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1046,10 +979,10 @@
         <v>44423.42195601852</v>
       </c>
       <c r="D14" t="n">
-        <v>12077</v>
+        <v>12129</v>
       </c>
       <c r="E14" t="n">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1091,10 +1024,10 @@
         <v>44423.42134259259</v>
       </c>
       <c r="D15" t="n">
-        <v>10979</v>
+        <v>11018</v>
       </c>
       <c r="E15" t="n">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1136,10 +1069,10 @@
         <v>44423.42061342593</v>
       </c>
       <c r="D16" t="n">
-        <v>15138</v>
+        <v>15193</v>
       </c>
       <c r="E16" t="n">
-        <v>2197</v>
+        <v>2205</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1181,10 +1114,10 @@
         <v>44423.42019675926</v>
       </c>
       <c r="D17" t="n">
-        <v>18188</v>
+        <v>18256</v>
       </c>
       <c r="E17" t="n">
-        <v>2226</v>
+        <v>2233</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1226,10 +1159,10 @@
         <v>44423.41927083334</v>
       </c>
       <c r="D18" t="n">
-        <v>22804</v>
+        <v>22915</v>
       </c>
       <c r="E18" t="n">
-        <v>5978</v>
+        <v>6008</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1281,10 +1214,10 @@
         <v>44423.41887731481</v>
       </c>
       <c r="D19" t="n">
-        <v>8579</v>
+        <v>8627</v>
       </c>
       <c r="E19" t="n">
-        <v>2405</v>
+        <v>2419</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1330,10 +1263,10 @@
         <v>44423.4184375</v>
       </c>
       <c r="D20" t="n">
-        <v>11643</v>
+        <v>11699</v>
       </c>
       <c r="E20" t="n">
-        <v>2638</v>
+        <v>2652</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1375,10 +1308,10 @@
         <v>44423.41760416667</v>
       </c>
       <c r="D21" t="n">
-        <v>8018</v>
+        <v>8063</v>
       </c>
       <c r="E21" t="n">
-        <v>2136</v>
+        <v>2147</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1420,10 +1353,10 @@
         <v>44423.416875</v>
       </c>
       <c r="D22" t="n">
-        <v>8174</v>
+        <v>8229</v>
       </c>
       <c r="E22" t="n">
-        <v>2153</v>
+        <v>2168</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1465,10 +1398,10 @@
         <v>44423.41629629629</v>
       </c>
       <c r="D23" t="n">
-        <v>7699</v>
+        <v>7732</v>
       </c>
       <c r="E23" t="n">
-        <v>2086</v>
+        <v>2098</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1514,10 +1447,10 @@
         <v>44423.41508101852</v>
       </c>
       <c r="D24" t="n">
-        <v>8808</v>
+        <v>8859</v>
       </c>
       <c r="E24" t="n">
-        <v>2298</v>
+        <v>2311</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1562,10 +1495,10 @@
         <v>44423.4146875</v>
       </c>
       <c r="D25" t="n">
-        <v>10004</v>
+        <v>10067</v>
       </c>
       <c r="E25" t="n">
-        <v>2564</v>
+        <v>2581</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1609,10 +1542,10 @@
         <v>44423.4143287037</v>
       </c>
       <c r="D26" t="n">
-        <v>8547</v>
+        <v>8596</v>
       </c>
       <c r="E26" t="n">
-        <v>2287</v>
+        <v>2299</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1655,10 +1588,10 @@
         <v>44423.41402777778</v>
       </c>
       <c r="D27" t="n">
-        <v>10380</v>
+        <v>10432</v>
       </c>
       <c r="E27" t="n">
-        <v>2648</v>
+        <v>2665</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1701,10 +1634,10 @@
         <v>44423.22641203704</v>
       </c>
       <c r="D28" t="n">
-        <v>21044</v>
+        <v>21071</v>
       </c>
       <c r="E28" t="n">
-        <v>4435</v>
+        <v>4442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1746,10 +1679,10 @@
         <v>44423.22174768519</v>
       </c>
       <c r="D29" t="n">
-        <v>77959</v>
+        <v>78102</v>
       </c>
       <c r="E29" t="n">
-        <v>12521</v>
+        <v>12535</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1792,10 +1725,10 @@
         <v>44423.21837962963</v>
       </c>
       <c r="D30" t="n">
-        <v>50266</v>
+        <v>50328</v>
       </c>
       <c r="E30" t="n">
-        <v>5582</v>
+        <v>5587</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1840,10 +1773,10 @@
         <v>44423.09165509259</v>
       </c>
       <c r="D31" t="n">
-        <v>47421</v>
+        <v>47463</v>
       </c>
       <c r="E31" t="n">
-        <v>10950</v>
+        <v>10961</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1885,10 +1818,10 @@
         <v>44423.01552083333</v>
       </c>
       <c r="D32" t="n">
-        <v>134638</v>
+        <v>134703</v>
       </c>
       <c r="E32" t="n">
-        <v>23880</v>
+        <v>23884</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1933,10 +1866,10 @@
         <v>44422.4171412037</v>
       </c>
       <c r="D33" t="n">
-        <v>22167</v>
+        <v>22179</v>
       </c>
       <c r="E33" t="n">
-        <v>4118</v>
+        <v>4120</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1978,10 +1911,10 @@
         <v>44422.21435185185</v>
       </c>
       <c r="D34" t="n">
-        <v>42733</v>
+        <v>42747</v>
       </c>
       <c r="E34" t="n">
-        <v>10967</v>
+        <v>10973</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2023,10 +1956,10 @@
         <v>44422.21434027778</v>
       </c>
       <c r="D35" t="n">
-        <v>108126</v>
+        <v>108170</v>
       </c>
       <c r="E35" t="n">
-        <v>27095</v>
+        <v>27105</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2068,10 +2001,10 @@
         <v>44422.21372685185</v>
       </c>
       <c r="D36" t="n">
-        <v>51569</v>
+        <v>51583</v>
       </c>
       <c r="E36" t="n">
-        <v>13276</v>
+        <v>13281</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2113,10 +2046,10 @@
         <v>44422.21371527778</v>
       </c>
       <c r="D37" t="n">
-        <v>102238</v>
+        <v>102259</v>
       </c>
       <c r="E37" t="n">
-        <v>26432</v>
+        <v>26437</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2158,10 +2091,10 @@
         <v>44421.62515046296</v>
       </c>
       <c r="D38" t="n">
-        <v>23048</v>
+        <v>23056</v>
       </c>
       <c r="E38" t="n">
-        <v>4615</v>
+        <v>4618</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2203,10 +2136,10 @@
         <v>44421.54042824074</v>
       </c>
       <c r="D39" t="n">
-        <v>14226</v>
+        <v>14232</v>
       </c>
       <c r="E39" t="n">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2248,10 +2181,10 @@
         <v>44421.54011574074</v>
       </c>
       <c r="D40" t="n">
-        <v>12096</v>
+        <v>12101</v>
       </c>
       <c r="E40" t="n">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2293,10 +2226,10 @@
         <v>44421.53986111111</v>
       </c>
       <c r="D41" t="n">
-        <v>13166</v>
+        <v>13172</v>
       </c>
       <c r="E41" t="n">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2338,10 +2271,10 @@
         <v>44421.25181712963</v>
       </c>
       <c r="D42" t="n">
-        <v>18506</v>
+        <v>18510</v>
       </c>
       <c r="E42" t="n">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2383,10 +2316,10 @@
         <v>44421.19212962963</v>
       </c>
       <c r="D43" t="n">
-        <v>15638</v>
+        <v>15642</v>
       </c>
       <c r="E43" t="n">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2428,10 +2361,10 @@
         <v>44421.19212962963</v>
       </c>
       <c r="D44" t="n">
-        <v>34890</v>
+        <v>34893</v>
       </c>
       <c r="E44" t="n">
-        <v>6012</v>
+        <v>6013</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2474,10 +2407,10 @@
         <v>44420.67209490741</v>
       </c>
       <c r="D45" t="n">
-        <v>30546</v>
+        <v>30549</v>
       </c>
       <c r="E45" t="n">
-        <v>4772</v>
+        <v>4773</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2520,10 +2453,10 @@
         <v>44420.45333333333</v>
       </c>
       <c r="D46" t="n">
-        <v>18105</v>
+        <v>18109</v>
       </c>
       <c r="E46" t="n">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2567,10 +2500,10 @@
         <v>44420.45315972222</v>
       </c>
       <c r="D47" t="n">
-        <v>9002</v>
+        <v>9005</v>
       </c>
       <c r="E47" t="n">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2613,10 +2546,10 @@
         <v>44420.45297453704</v>
       </c>
       <c r="D48" t="n">
-        <v>9068</v>
+        <v>9070</v>
       </c>
       <c r="E48" t="n">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2659,7 +2592,7 @@
         <v>44420.45262731481</v>
       </c>
       <c r="D49" t="n">
-        <v>9444</v>
+        <v>9446</v>
       </c>
       <c r="E49" t="n">
         <v>2456</v>
@@ -2704,7 +2637,7 @@
         <v>44420.45151620371</v>
       </c>
       <c r="D50" t="n">
-        <v>10436</v>
+        <v>10437</v>
       </c>
       <c r="E50" t="n">
         <v>2569</v>
@@ -2794,10 +2727,10 @@
         <v>44420.45081018518</v>
       </c>
       <c r="D52" t="n">
-        <v>8153</v>
+        <v>8156</v>
       </c>
       <c r="E52" t="n">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2839,7 +2772,7 @@
         <v>44420.45049768518</v>
       </c>
       <c r="D53" t="n">
-        <v>7957</v>
+        <v>7958</v>
       </c>
       <c r="E53" t="n">
         <v>2089</v>
@@ -2884,7 +2817,7 @@
         <v>44420.30236111111</v>
       </c>
       <c r="D54" t="n">
-        <v>17798</v>
+        <v>17801</v>
       </c>
       <c r="E54" t="n">
         <v>4128</v>
@@ -2929,7 +2862,7 @@
         <v>44419.66991898148</v>
       </c>
       <c r="D55" t="n">
-        <v>20126</v>
+        <v>20127</v>
       </c>
       <c r="E55" t="n">
         <v>3451</v>
@@ -2974,7 +2907,7 @@
         <v>44419.66916666667</v>
       </c>
       <c r="D56" t="n">
-        <v>42979</v>
+        <v>42980</v>
       </c>
       <c r="E56" t="n">
         <v>6437</v>
@@ -3019,7 +2952,7 @@
         <v>44419.66883101852</v>
       </c>
       <c r="D57" t="n">
-        <v>5998</v>
+        <v>6000</v>
       </c>
       <c r="E57" t="n">
         <v>1487</v>
@@ -3064,7 +2997,7 @@
         <v>44419.668125</v>
       </c>
       <c r="D58" t="n">
-        <v>14998</v>
+        <v>15000</v>
       </c>
       <c r="E58" t="n">
         <v>2909</v>
@@ -3109,7 +3042,7 @@
         <v>44419.66388888889</v>
       </c>
       <c r="D59" t="n">
-        <v>9371</v>
+        <v>9372</v>
       </c>
       <c r="E59" t="n">
         <v>2252</v>
@@ -3154,10 +3087,10 @@
         <v>44419.66327546296</v>
       </c>
       <c r="D60" t="n">
-        <v>10210</v>
+        <v>10212</v>
       </c>
       <c r="E60" t="n">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3199,7 +3132,7 @@
         <v>44419.65631944445</v>
       </c>
       <c r="D61" t="n">
-        <v>11658</v>
+        <v>11659</v>
       </c>
       <c r="E61" t="n">
         <v>2610</v>
@@ -3244,10 +3177,10 @@
         <v>44419.47503472222</v>
       </c>
       <c r="D62" t="n">
-        <v>19385</v>
+        <v>19387</v>
       </c>
       <c r="E62" t="n">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3289,7 +3222,7 @@
         <v>44419.14616898148</v>
       </c>
       <c r="D63" t="n">
-        <v>39289</v>
+        <v>39291</v>
       </c>
       <c r="E63" t="n">
         <v>4870</v>
@@ -3334,7 +3267,7 @@
         <v>44419.14510416667</v>
       </c>
       <c r="D64" t="n">
-        <v>12538</v>
+        <v>12539</v>
       </c>
       <c r="E64" t="n">
         <v>2649</v>
@@ -3380,7 +3313,7 @@
         <v>44418.53304398148</v>
       </c>
       <c r="D65" t="n">
-        <v>15598</v>
+        <v>15599</v>
       </c>
       <c r="E65" t="n">
         <v>3405</v>
@@ -3425,10 +3358,10 @@
         <v>44418.53295138889</v>
       </c>
       <c r="D66" t="n">
-        <v>9639</v>
+        <v>9640</v>
       </c>
       <c r="E66" t="n">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3472,10 +3405,10 @@
         <v>44418.53244212963</v>
       </c>
       <c r="D67" t="n">
-        <v>12361</v>
+        <v>12362</v>
       </c>
       <c r="E67" t="n">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3517,10 +3450,10 @@
         <v>44418.53234953704</v>
       </c>
       <c r="D68" t="n">
-        <v>8745</v>
+        <v>8746</v>
       </c>
       <c r="E68" t="n">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3563,7 +3496,7 @@
         <v>44418.53216435185</v>
       </c>
       <c r="D69" t="n">
-        <v>8482</v>
+        <v>8483</v>
       </c>
       <c r="E69" t="n">
         <v>2172</v>
@@ -3608,7 +3541,7 @@
         <v>44418.52894675926</v>
       </c>
       <c r="D70" t="n">
-        <v>10709</v>
+        <v>10710</v>
       </c>
       <c r="E70" t="n">
         <v>2543</v>
@@ -3653,7 +3586,7 @@
         <v>44418.5270949074</v>
       </c>
       <c r="D71" t="n">
-        <v>19158</v>
+        <v>19160</v>
       </c>
       <c r="E71" t="n">
         <v>3563</v>
@@ -3698,7 +3631,7 @@
         <v>44418.52699074074</v>
       </c>
       <c r="D72" t="n">
-        <v>9482</v>
+        <v>9483</v>
       </c>
       <c r="E72" t="n">
         <v>2280</v>
@@ -3743,7 +3676,7 @@
         <v>44418.52689814815</v>
       </c>
       <c r="D73" t="n">
-        <v>8104</v>
+        <v>8105</v>
       </c>
       <c r="E73" t="n">
         <v>2079</v>
@@ -3788,7 +3721,7 @@
         <v>44418.31539351852</v>
       </c>
       <c r="D74" t="n">
-        <v>24480</v>
+        <v>24482</v>
       </c>
       <c r="E74" t="n">
         <v>4984</v>
@@ -3833,7 +3766,7 @@
         <v>44418.14707175926</v>
       </c>
       <c r="D75" t="n">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="E75" t="n">
         <v>3713</v>
@@ -3878,7 +3811,7 @@
         <v>44418.13318287037</v>
       </c>
       <c r="D76" t="n">
-        <v>36752</v>
+        <v>36754</v>
       </c>
       <c r="E76" t="n">
         <v>5803</v>
@@ -3923,7 +3856,7 @@
         <v>44418.13189814815</v>
       </c>
       <c r="D77" t="n">
-        <v>47837</v>
+        <v>47838</v>
       </c>
       <c r="E77" t="n">
         <v>7184</v>
@@ -3968,10 +3901,10 @@
         <v>44417.57224537037</v>
       </c>
       <c r="D78" t="n">
-        <v>12085</v>
+        <v>12086</v>
       </c>
       <c r="E78" t="n">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4013,7 +3946,7 @@
         <v>44417.57223379629</v>
       </c>
       <c r="D79" t="n">
-        <v>40556</v>
+        <v>40557</v>
       </c>
       <c r="E79" t="n">
         <v>6240</v>
@@ -4058,7 +3991,7 @@
         <v>44417.52252314815</v>
       </c>
       <c r="D80" t="n">
-        <v>24256</v>
+        <v>24255</v>
       </c>
       <c r="E80" t="n">
         <v>5610</v>
@@ -4196,7 +4129,7 @@
         <v>8811</v>
       </c>
       <c r="E83" t="n">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4332,7 +4265,7 @@
         <v>7827</v>
       </c>
       <c r="E86" t="n">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4378,7 +4311,7 @@
         <v>12933</v>
       </c>
       <c r="E87" t="n">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4422,10 +4355,10 @@
         <v>44417.44237268518</v>
       </c>
       <c r="D88" t="n">
-        <v>9365</v>
+        <v>9366</v>
       </c>
       <c r="E88" t="n">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4471,7 +4404,7 @@
         <v>8398</v>
       </c>
       <c r="E89" t="n">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4517,7 +4450,7 @@
         <v>19861</v>
       </c>
       <c r="E90" t="n">
-        <v>4770</v>
+        <v>4771</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4559,7 +4492,7 @@
         <v>44417.16539351852</v>
       </c>
       <c r="D91" t="n">
-        <v>28791</v>
+        <v>28792</v>
       </c>
       <c r="E91" t="n">
         <v>3750</v>
@@ -4650,7 +4583,7 @@
         <v>44416.60033564815</v>
       </c>
       <c r="D93" t="n">
-        <v>13897</v>
+        <v>13898</v>
       </c>
       <c r="E93" t="n">
         <v>2498</v>
@@ -4696,7 +4629,7 @@
         <v>44416.60032407408</v>
       </c>
       <c r="D94" t="n">
-        <v>29497</v>
+        <v>29499</v>
       </c>
       <c r="E94" t="n">
         <v>5012</v>
@@ -4970,10 +4903,10 @@
         <v>44415.58188657407</v>
       </c>
       <c r="D100" t="n">
-        <v>156640</v>
+        <v>156643</v>
       </c>
       <c r="E100" t="n">
-        <v>22581</v>
+        <v>22582</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5015,10 +4948,10 @@
         <v>44415.51398148148</v>
       </c>
       <c r="D101" t="n">
-        <v>183683</v>
+        <v>183686</v>
       </c>
       <c r="E101" t="n">
-        <v>39395</v>
+        <v>39396</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5061,7 +4994,7 @@
         <v>44415.45995370371</v>
       </c>
       <c r="D102" t="n">
-        <v>138760</v>
+        <v>138761</v>
       </c>
       <c r="E102" t="n">
         <v>17345</v>
@@ -5109,7 +5042,7 @@
         <v>44415.40118055556</v>
       </c>
       <c r="D103" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="E103" t="n">
         <v>5898</v>
@@ -5387,10 +5320,10 @@
         <v>44415.3174074074</v>
       </c>
       <c r="D109" t="n">
-        <v>24621</v>
+        <v>24622</v>
       </c>
       <c r="E109" t="n">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5658,7 +5591,7 @@
         <v>44414.69829861111</v>
       </c>
       <c r="D115" t="n">
-        <v>11128</v>
+        <v>11126</v>
       </c>
       <c r="E115" t="n">
         <v>2468</v>
@@ -5749,10 +5682,10 @@
         <v>44414.63245370371</v>
       </c>
       <c r="D117" t="n">
-        <v>28277</v>
+        <v>28278</v>
       </c>
       <c r="E117" t="n">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5795,7 +5728,7 @@
         <v>44414.58599537037</v>
       </c>
       <c r="D118" t="n">
-        <v>17777</v>
+        <v>17778</v>
       </c>
       <c r="E118" t="n">
         <v>3835</v>
@@ -5879,7 +5812,7 @@
         <v>44414.29452546296</v>
       </c>
       <c r="D120" t="n">
-        <v>142854</v>
+        <v>142855</v>
       </c>
       <c r="E120" t="n">
         <v>29498</v>
@@ -5925,10 +5858,10 @@
         <v>44414.29421296297</v>
       </c>
       <c r="D121" t="n">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="E121" t="n">
-        <v>7872</v>
+        <v>7873</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6017,7 +5950,7 @@
         <v>44414.2887962963</v>
       </c>
       <c r="D123" t="n">
-        <v>146277</v>
+        <v>146278</v>
       </c>
       <c r="E123" t="n">
         <v>35089</v>
@@ -6530,7 +6463,7 @@
         <v>44413.57540509259</v>
       </c>
       <c r="D134" t="n">
-        <v>18355</v>
+        <v>18353</v>
       </c>
       <c r="E134" t="n">
         <v>2924</v>
@@ -6990,7 +6923,7 @@
         <v>44413.55237268518</v>
       </c>
       <c r="D144" t="n">
-        <v>14200</v>
+        <v>14198</v>
       </c>
       <c r="E144" t="n">
         <v>2653</v>
@@ -7177,7 +7110,7 @@
         <v>10047</v>
       </c>
       <c r="E148" t="n">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7222,7 +7155,7 @@
         <v>9334</v>
       </c>
       <c r="E149" t="n">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7358,7 +7291,7 @@
         <v>7610</v>
       </c>
       <c r="E152" t="n">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7401,10 +7334,10 @@
         <v>44413.50998842593</v>
       </c>
       <c r="D153" t="n">
-        <v>9304</v>
+        <v>9301</v>
       </c>
       <c r="E153" t="n">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7450,7 +7383,7 @@
         <v>11543</v>
       </c>
       <c r="E154" t="n">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7498,7 +7431,7 @@
         <v>11905</v>
       </c>
       <c r="E155" t="n">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -7540,10 +7473,10 @@
         <v>44413.5096412037</v>
       </c>
       <c r="D156" t="n">
-        <v>10911</v>
+        <v>10910</v>
       </c>
       <c r="E156" t="n">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7632,7 +7565,7 @@
         <v>44413.4696875</v>
       </c>
       <c r="D158" t="n">
-        <v>111785</v>
+        <v>111786</v>
       </c>
       <c r="E158" t="n">
         <v>14941</v>
@@ -7680,10 +7613,10 @@
         <v>44413.32291666666</v>
       </c>
       <c r="D159" t="n">
-        <v>17781</v>
+        <v>17782</v>
       </c>
       <c r="E159" t="n">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -7729,7 +7662,7 @@
         <v>102274</v>
       </c>
       <c r="E160" t="n">
-        <v>16975</v>
+        <v>16976</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7774,10 +7707,10 @@
         <v>44413.14175925926</v>
       </c>
       <c r="D161" t="n">
-        <v>152283</v>
+        <v>152284</v>
       </c>
       <c r="E161" t="n">
-        <v>26108</v>
+        <v>26109</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -8051,7 +7984,7 @@
         <v>96152</v>
       </c>
       <c r="E167" t="n">
-        <v>9140</v>
+        <v>9141</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -8313,10 +8246,10 @@
         <v>44411.08696759259</v>
       </c>
       <c r="D173" t="n">
-        <v>116196</v>
+        <v>116197</v>
       </c>
       <c r="E173" t="n">
-        <v>11664</v>
+        <v>11665</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8358,7 +8291,7 @@
         <v>44410.54395833334</v>
       </c>
       <c r="D174" t="n">
-        <v>16288</v>
+        <v>16289</v>
       </c>
       <c r="E174" t="n">
         <v>2968</v>
@@ -8404,7 +8337,7 @@
         <v>44410.54251157407</v>
       </c>
       <c r="D175" t="n">
-        <v>35985</v>
+        <v>35986</v>
       </c>
       <c r="E175" t="n">
         <v>4879</v>
@@ -8588,7 +8521,7 @@
         <v>35896</v>
       </c>
       <c r="E179" t="n">
-        <v>5495</v>
+        <v>5496</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8630,10 +8563,10 @@
         <v>44410.25423611111</v>
       </c>
       <c r="D180" t="n">
-        <v>46841</v>
+        <v>46837</v>
       </c>
       <c r="E180" t="n">
-        <v>6768</v>
+        <v>6769</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9000,7 +8933,7 @@
         <v>44408.23684027778</v>
       </c>
       <c r="D188" t="n">
-        <v>31059</v>
+        <v>31058</v>
       </c>
       <c r="E188" t="n">
         <v>5964</v>
@@ -9136,7 +9069,7 @@
         <v>44407.41466435185</v>
       </c>
       <c r="D191" t="n">
-        <v>27661</v>
+        <v>27662</v>
       </c>
       <c r="E191" t="n">
         <v>4189</v>
@@ -9636,10 +9569,10 @@
         <v>44406.42094907408</v>
       </c>
       <c r="D202" t="n">
-        <v>58185</v>
+        <v>58184</v>
       </c>
       <c r="E202" t="n">
-        <v>11342</v>
+        <v>11341</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -9683,7 +9616,7 @@
         <v>44406.37519675926</v>
       </c>
       <c r="D203" t="n">
-        <v>31459</v>
+        <v>31460</v>
       </c>
       <c r="E203" t="n">
         <v>5173</v>
@@ -9865,7 +9798,7 @@
         <v>44406.17241898148</v>
       </c>
       <c r="D207" t="n">
-        <v>42257</v>
+        <v>42253</v>
       </c>
       <c r="E207" t="n">
         <v>7495</v>
@@ -9912,7 +9845,7 @@
         <v>44405.6456712963</v>
       </c>
       <c r="D208" t="n">
-        <v>88455</v>
+        <v>88456</v>
       </c>
       <c r="E208" t="n">
         <v>11271</v>
@@ -9957,7 +9890,7 @@
         <v>44405.64465277778</v>
       </c>
       <c r="D209" t="n">
-        <v>26550</v>
+        <v>26551</v>
       </c>
       <c r="E209" t="n">
         <v>4550</v>
@@ -10094,7 +10027,7 @@
         <v>44405.25800925926</v>
       </c>
       <c r="D212" t="n">
-        <v>61336</v>
+        <v>61337</v>
       </c>
       <c r="E212" t="n">
         <v>9687</v>
@@ -10139,7 +10072,7 @@
         <v>44405.25726851852</v>
       </c>
       <c r="D213" t="n">
-        <v>29067</v>
+        <v>29066</v>
       </c>
       <c r="E213" t="n">
         <v>4299</v>
@@ -10498,7 +10431,7 @@
         <v>44403.65752314815</v>
       </c>
       <c r="D221" t="n">
-        <v>109137</v>
+        <v>109138</v>
       </c>
       <c r="E221" t="n">
         <v>14426</v>
@@ -10639,7 +10572,7 @@
         <v>44403.08769675926</v>
       </c>
       <c r="D224" t="n">
-        <v>71191</v>
+        <v>71192</v>
       </c>
       <c r="E224" t="n">
         <v>8966</v>
@@ -10734,7 +10667,7 @@
         <v>44402.50398148148</v>
       </c>
       <c r="D226" t="n">
-        <v>47264</v>
+        <v>47263</v>
       </c>
       <c r="E226" t="n">
         <v>10049</v>
@@ -11062,7 +10995,7 @@
         <v>44402.40119212963</v>
       </c>
       <c r="D233" t="n">
-        <v>7100</v>
+        <v>7101</v>
       </c>
       <c r="E233" t="n">
         <v>1830</v>
@@ -11154,7 +11087,7 @@
         <v>44402.40059027778</v>
       </c>
       <c r="D235" t="n">
-        <v>8845</v>
+        <v>8844</v>
       </c>
       <c r="E235" t="n">
         <v>2140</v>
@@ -11390,7 +11323,7 @@
         <v>44402.22954861111</v>
       </c>
       <c r="D240" t="n">
-        <v>21746</v>
+        <v>21744</v>
       </c>
       <c r="E240" t="n">
         <v>5077</v>
@@ -11480,7 +11413,7 @@
         <v>44401.27755787037</v>
       </c>
       <c r="D242" t="n">
-        <v>178125</v>
+        <v>178126</v>
       </c>
       <c r="E242" t="n">
         <v>28243</v>
@@ -11699,7 +11632,7 @@
         <v>44400.55547453704</v>
       </c>
       <c r="D247" t="n">
-        <v>26002</v>
+        <v>26003</v>
       </c>
       <c r="E247" t="n">
         <v>4586</v>
@@ -12098,7 +12031,7 @@
         <v>44400.12435185185</v>
       </c>
       <c r="D256" t="n">
-        <v>26047</v>
+        <v>26048</v>
       </c>
       <c r="E256" t="n">
         <v>4767</v>
@@ -12498,7 +12431,7 @@
         <v>44397.19672453704</v>
       </c>
       <c r="D265" t="n">
-        <v>47028</v>
+        <v>47027</v>
       </c>
       <c r="E265" t="n">
         <v>7399</v>
@@ -12544,7 +12477,7 @@
         <v>44397.16365740741</v>
       </c>
       <c r="D266" t="n">
-        <v>62713</v>
+        <v>62712</v>
       </c>
       <c r="E266" t="n">
         <v>9611</v>
@@ -12769,10 +12702,10 @@
         <v>44395.48637731482</v>
       </c>
       <c r="D271" t="n">
-        <v>38400</v>
+        <v>38401</v>
       </c>
       <c r="E271" t="n">
-        <v>5718</v>
+        <v>5719</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -13036,7 +12969,7 @@
         <v>15414</v>
       </c>
       <c r="E277" t="n">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -13216,7 +13149,7 @@
         <v>44392.59884259259</v>
       </c>
       <c r="D281" t="n">
-        <v>64792</v>
+        <v>64793</v>
       </c>
       <c r="E281" t="n">
         <v>9698</v>
@@ -13310,7 +13243,7 @@
         <v>30108</v>
       </c>
       <c r="E283" t="n">
-        <v>5446</v>
+        <v>5447</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -14094,7 +14027,7 @@
         <v>44391.49011574074</v>
       </c>
       <c r="D300" t="n">
-        <v>65396</v>
+        <v>65397</v>
       </c>
       <c r="E300" t="n">
         <v>10573</v>
@@ -14236,7 +14169,7 @@
         <v>44391.48476851852</v>
       </c>
       <c r="D303" t="n">
-        <v>16466</v>
+        <v>16467</v>
       </c>
       <c r="E303" t="n">
         <v>3551</v>
@@ -14734,7 +14667,7 @@
         <v>44390.61991898148</v>
       </c>
       <c r="D314" t="n">
-        <v>32740</v>
+        <v>32739</v>
       </c>
       <c r="E314" t="n">
         <v>4670</v>
@@ -14961,7 +14894,7 @@
         <v>44390.61177083333</v>
       </c>
       <c r="D319" t="n">
-        <v>9281</v>
+        <v>9280</v>
       </c>
       <c r="E319" t="n">
         <v>2565</v>
@@ -15051,7 +14984,7 @@
         <v>44390.60944444445</v>
       </c>
       <c r="D321" t="n">
-        <v>7565</v>
+        <v>7563</v>
       </c>
       <c r="E321" t="n">
         <v>2054</v>
@@ -15730,7 +15663,7 @@
         <v>44389.11252314815</v>
       </c>
       <c r="D336" t="n">
-        <v>89876</v>
+        <v>89877</v>
       </c>
       <c r="E336" t="n">
         <v>12053</v>
@@ -15775,7 +15708,7 @@
         <v>44388.20405092592</v>
       </c>
       <c r="D337" t="n">
-        <v>67074</v>
+        <v>67075</v>
       </c>
       <c r="E337" t="n">
         <v>12815</v>
@@ -16045,7 +15978,7 @@
         <v>44386.47583333333</v>
       </c>
       <c r="D343" t="n">
-        <v>31473</v>
+        <v>31472</v>
       </c>
       <c r="E343" t="n">
         <v>5245</v>
@@ -16135,7 +16068,7 @@
         <v>44386.43759259259</v>
       </c>
       <c r="D345" t="n">
-        <v>16405</v>
+        <v>16403</v>
       </c>
       <c r="E345" t="n">
         <v>2669</v>
@@ -16270,7 +16203,7 @@
         <v>44386.32989583333</v>
       </c>
       <c r="D348" t="n">
-        <v>14538</v>
+        <v>14537</v>
       </c>
       <c r="E348" t="n">
         <v>2820</v>
@@ -16315,7 +16248,7 @@
         <v>44386.32988425926</v>
       </c>
       <c r="D349" t="n">
-        <v>22713</v>
+        <v>22712</v>
       </c>
       <c r="E349" t="n">
         <v>4120</v>
@@ -16360,7 +16293,7 @@
         <v>44386.16168981481</v>
       </c>
       <c r="D350" t="n">
-        <v>48559</v>
+        <v>48558</v>
       </c>
       <c r="E350" t="n">
         <v>6770</v>
@@ -16405,7 +16338,7 @@
         <v>44386.15893518519</v>
       </c>
       <c r="D351" t="n">
-        <v>42501</v>
+        <v>42500</v>
       </c>
       <c r="E351" t="n">
         <v>6400</v>
@@ -16543,7 +16476,7 @@
         <v>44385.63280092592</v>
       </c>
       <c r="D354" t="n">
-        <v>25235</v>
+        <v>25236</v>
       </c>
       <c r="E354" t="n">
         <v>5222</v>
@@ -16950,7 +16883,7 @@
         <v>44384.12868055556</v>
       </c>
       <c r="D363" t="n">
-        <v>97217</v>
+        <v>97214</v>
       </c>
       <c r="E363" t="n">
         <v>11036</v>
@@ -17041,7 +16974,7 @@
         <v>44383.30597222222</v>
       </c>
       <c r="D365" t="n">
-        <v>78809</v>
+        <v>78810</v>
       </c>
       <c r="E365" t="n">
         <v>11721</v>
@@ -17086,7 +17019,7 @@
         <v>44383.05491898148</v>
       </c>
       <c r="D366" t="n">
-        <v>57251</v>
+        <v>57245</v>
       </c>
       <c r="E366" t="n">
         <v>9035</v>
@@ -17304,7 +17237,7 @@
         <v>44381.34900462963</v>
       </c>
       <c r="D371" t="n">
-        <v>40479</v>
+        <v>40474</v>
       </c>
       <c r="E371" t="n">
         <v>5822</v>
@@ -17487,7 +17420,7 @@
         <v>44379.57841435185</v>
       </c>
       <c r="D375" t="n">
-        <v>38740</v>
+        <v>38741</v>
       </c>
       <c r="E375" t="n">
         <v>7748</v>
@@ -18207,7 +18140,7 @@
         <v>44378.35011574074</v>
       </c>
       <c r="D391" t="n">
-        <v>24795</v>
+        <v>24796</v>
       </c>
       <c r="E391" t="n">
         <v>5069</v>
@@ -18388,7 +18321,7 @@
         <v>44378.14393518519</v>
       </c>
       <c r="D395" t="n">
-        <v>12530</v>
+        <v>12531</v>
       </c>
       <c r="E395" t="n">
         <v>3266</v>
